--- a/data/pca/factorExposure/factorExposure_2015-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02047144030613281</v>
+        <v>0.011241804695091</v>
       </c>
       <c r="C2">
-        <v>-0.02662067820007331</v>
+        <v>-0.05255315931024086</v>
       </c>
       <c r="D2">
-        <v>0.1305873311529465</v>
+        <v>-0.1466740423306159</v>
       </c>
       <c r="E2">
-        <v>-0.001001462065738657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.009158122949933522</v>
+      </c>
+      <c r="F2">
+        <v>0.01480532691974563</v>
+      </c>
+      <c r="G2">
+        <v>0.1165909832791698</v>
+      </c>
+      <c r="H2">
+        <v>0.07171686018094306</v>
+      </c>
+      <c r="I2">
+        <v>-0.0300260077374874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.003812916292656707</v>
+        <v>-0.001692825258971865</v>
       </c>
       <c r="C3">
-        <v>-0.01664663047870846</v>
+        <v>-0.01288248405242342</v>
       </c>
       <c r="D3">
-        <v>0.01994840631290038</v>
+        <v>-0.01267732260703096</v>
       </c>
       <c r="E3">
-        <v>0.003623970717259034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01543040182557291</v>
+      </c>
+      <c r="F3">
+        <v>-0.01204622879891453</v>
+      </c>
+      <c r="G3">
+        <v>-0.001762524441552503</v>
+      </c>
+      <c r="H3">
+        <v>0.007693851903222279</v>
+      </c>
+      <c r="I3">
+        <v>0.02000617241412963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04814361418958257</v>
+        <v>0.02321463989418264</v>
       </c>
       <c r="C4">
-        <v>-0.07179206085538931</v>
+        <v>-0.1003431667928545</v>
       </c>
       <c r="D4">
-        <v>0.1288699833973155</v>
+        <v>-0.1375402216474851</v>
       </c>
       <c r="E4">
-        <v>0.07486766542713341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01729544607265125</v>
+      </c>
+      <c r="F4">
+        <v>0.08750337923644164</v>
+      </c>
+      <c r="G4">
+        <v>0.006568296923072101</v>
+      </c>
+      <c r="H4">
+        <v>0.04061018765478067</v>
+      </c>
+      <c r="I4">
+        <v>-0.03291272423944856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02666889288630348</v>
+        <v>0.03015637785897721</v>
       </c>
       <c r="C6">
-        <v>-0.01228482822781783</v>
+        <v>-0.02945814551665617</v>
       </c>
       <c r="D6">
-        <v>0.1449679767992851</v>
+        <v>-0.1298640410785981</v>
       </c>
       <c r="E6">
-        <v>0.03384049000992148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04564825103772643</v>
+      </c>
+      <c r="F6">
+        <v>0.05295375334522069</v>
+      </c>
+      <c r="G6">
+        <v>0.009961894926554606</v>
+      </c>
+      <c r="H6">
+        <v>0.0622649666765714</v>
+      </c>
+      <c r="I6">
+        <v>0.01839459099232012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009400629145256752</v>
+        <v>0.01005824065949293</v>
       </c>
       <c r="C7">
-        <v>-0.02393718837980058</v>
+        <v>-0.03424866220571988</v>
       </c>
       <c r="D7">
-        <v>0.1141987630251822</v>
+        <v>-0.1026343409513479</v>
       </c>
       <c r="E7">
-        <v>-0.0020969256738881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04760346273543056</v>
+      </c>
+      <c r="F7">
+        <v>0.007325662042865369</v>
+      </c>
+      <c r="G7">
+        <v>-0.008448167471927488</v>
+      </c>
+      <c r="H7">
+        <v>0.07081906583462683</v>
+      </c>
+      <c r="I7">
+        <v>0.02500563338732509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001430486302017823</v>
+        <v>-0.008882450097295515</v>
       </c>
       <c r="C8">
-        <v>-0.02823135677247596</v>
+        <v>-0.03401909051331879</v>
       </c>
       <c r="D8">
-        <v>0.0820056204838165</v>
+        <v>-0.0815054698267319</v>
       </c>
       <c r="E8">
-        <v>0.02072113637507817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01800769283802694</v>
+      </c>
+      <c r="F8">
+        <v>0.042369010486432</v>
+      </c>
+      <c r="G8">
+        <v>0.07016014912117891</v>
+      </c>
+      <c r="H8">
+        <v>0.008642805639140296</v>
+      </c>
+      <c r="I8">
+        <v>0.0390385646116531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04158164440996767</v>
+        <v>0.01753572399586041</v>
       </c>
       <c r="C9">
-        <v>-0.06190753349718948</v>
+        <v>-0.08464426269886809</v>
       </c>
       <c r="D9">
-        <v>0.131886401919614</v>
+        <v>-0.1207628048005653</v>
       </c>
       <c r="E9">
-        <v>0.058065265021699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004867948555826655</v>
+      </c>
+      <c r="F9">
+        <v>0.05716064595750126</v>
+      </c>
+      <c r="G9">
+        <v>-0.0167356297513192</v>
+      </c>
+      <c r="H9">
+        <v>0.05515451391674972</v>
+      </c>
+      <c r="I9">
+        <v>-0.004876726898197132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1460317903234768</v>
+        <v>0.2258394248916563</v>
       </c>
       <c r="C10">
-        <v>0.1864277036662111</v>
+        <v>0.1056818004645763</v>
       </c>
       <c r="D10">
-        <v>0.01593280349182861</v>
+        <v>0.002076813566270303</v>
       </c>
       <c r="E10">
-        <v>0.04710373385031636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02354286088326205</v>
+      </c>
+      <c r="F10">
+        <v>0.03904219759727133</v>
+      </c>
+      <c r="G10">
+        <v>0.001804035159842035</v>
+      </c>
+      <c r="H10">
+        <v>-0.06002103947263059</v>
+      </c>
+      <c r="I10">
+        <v>0.1279726435441509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02425611163559245</v>
+        <v>0.01020184785513038</v>
       </c>
       <c r="C11">
-        <v>-0.04020275708265495</v>
+        <v>-0.05279812548716042</v>
       </c>
       <c r="D11">
-        <v>0.05239833554441242</v>
+        <v>-0.04525558202861025</v>
       </c>
       <c r="E11">
-        <v>-0.01607485098679567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01913152654092019</v>
+      </c>
+      <c r="F11">
+        <v>-0.01075330973497166</v>
+      </c>
+      <c r="G11">
+        <v>-0.008446846122034406</v>
+      </c>
+      <c r="H11">
+        <v>0.04777052425699736</v>
+      </c>
+      <c r="I11">
+        <v>-0.03096442812983207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02682678827634553</v>
+        <v>0.01129373637179592</v>
       </c>
       <c r="C12">
-        <v>-0.0405183519549351</v>
+        <v>-0.050146772767512</v>
       </c>
       <c r="D12">
-        <v>0.06531324861372782</v>
+        <v>-0.04951983514798521</v>
       </c>
       <c r="E12">
-        <v>-0.007090861818059162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01549824736627077</v>
+      </c>
+      <c r="F12">
+        <v>-0.01551131372920457</v>
+      </c>
+      <c r="G12">
+        <v>-0.02603347348215749</v>
+      </c>
+      <c r="H12">
+        <v>0.07055070626779848</v>
+      </c>
+      <c r="I12">
+        <v>-0.01638133793523101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007967666813017176</v>
+        <v>0.002003108217589072</v>
       </c>
       <c r="C13">
-        <v>-0.02860820530528451</v>
+        <v>-0.0452012888427309</v>
       </c>
       <c r="D13">
-        <v>0.1573888330364182</v>
+        <v>-0.1550956036599527</v>
       </c>
       <c r="E13">
-        <v>0.02649179307877133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03725618973401917</v>
+      </c>
+      <c r="F13">
+        <v>0.0333817715491382</v>
+      </c>
+      <c r="G13">
+        <v>0.02861664085680292</v>
+      </c>
+      <c r="H13">
+        <v>0.07588945163723938</v>
+      </c>
+      <c r="I13">
+        <v>0.08698339292549845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001348668956062474</v>
+        <v>-0.0004066033607432732</v>
       </c>
       <c r="C14">
-        <v>-0.02271414830603072</v>
+        <v>-0.02928830718231373</v>
       </c>
       <c r="D14">
-        <v>0.1067444985811464</v>
+        <v>-0.1046439059988321</v>
       </c>
       <c r="E14">
-        <v>0.008736506651870972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0306078368832837</v>
+      </c>
+      <c r="F14">
+        <v>0.0231216149689248</v>
+      </c>
+      <c r="G14">
+        <v>0.005573387014600616</v>
+      </c>
+      <c r="H14">
+        <v>0.1205072039596953</v>
+      </c>
+      <c r="I14">
+        <v>0.01772644947464115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001025832725173377</v>
+        <v>-0.000552107874311188</v>
       </c>
       <c r="C15">
-        <v>-0.0112729246963702</v>
+        <v>-0.01911823203984368</v>
       </c>
       <c r="D15">
-        <v>0.02497444085882448</v>
+        <v>-0.05159273157263167</v>
       </c>
       <c r="E15">
-        <v>-0.005094199871672392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.005714730911444578</v>
+      </c>
+      <c r="F15">
+        <v>0.003109556958610797</v>
+      </c>
+      <c r="G15">
+        <v>0.01821787283904334</v>
+      </c>
+      <c r="H15">
+        <v>0.01838727961585467</v>
+      </c>
+      <c r="I15">
+        <v>-0.01789822899813709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0242091270531136</v>
+        <v>0.01051887312150284</v>
       </c>
       <c r="C16">
-        <v>-0.03857264291434195</v>
+        <v>-0.04862295981851314</v>
       </c>
       <c r="D16">
-        <v>0.05886409281961618</v>
+        <v>-0.04659609155433472</v>
       </c>
       <c r="E16">
-        <v>-0.009584308812640613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0199751178523529</v>
+      </c>
+      <c r="F16">
+        <v>-0.007674321945493425</v>
+      </c>
+      <c r="G16">
+        <v>-0.01897057498081061</v>
+      </c>
+      <c r="H16">
+        <v>0.05240293568007313</v>
+      </c>
+      <c r="I16">
+        <v>-0.02937575221220913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.009690848049264535</v>
+        <v>0.0009191505722433395</v>
       </c>
       <c r="C19">
-        <v>-0.02699229234413912</v>
+        <v>-0.0249232013929583</v>
       </c>
       <c r="D19">
-        <v>0.1281219717338376</v>
+        <v>-0.08082903222397349</v>
       </c>
       <c r="E19">
-        <v>0.04193074901195307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01959854488787086</v>
+      </c>
+      <c r="F19">
+        <v>0.007540173186797556</v>
+      </c>
+      <c r="G19">
+        <v>0.01424466343461596</v>
+      </c>
+      <c r="H19">
+        <v>0.07674644761966451</v>
+      </c>
+      <c r="I19">
+        <v>0.04049990718261016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006689516202962897</v>
+        <v>0.004787559858403861</v>
       </c>
       <c r="C20">
-        <v>-0.0278447985721092</v>
+        <v>-0.03955938564162854</v>
       </c>
       <c r="D20">
-        <v>0.09405050280028653</v>
+        <v>-0.09870221597323227</v>
       </c>
       <c r="E20">
-        <v>0.03266448640488383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.005986559689952341</v>
+      </c>
+      <c r="F20">
+        <v>0.0273797742010292</v>
+      </c>
+      <c r="G20">
+        <v>-0.0008268516919363581</v>
+      </c>
+      <c r="H20">
+        <v>0.05686081688216883</v>
+      </c>
+      <c r="I20">
+        <v>0.006341663477764917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01091584738799616</v>
+        <v>0.004662841275195916</v>
       </c>
       <c r="C21">
-        <v>-0.03398444518258625</v>
+        <v>-0.04324204664174167</v>
       </c>
       <c r="D21">
-        <v>0.1683907283201397</v>
+        <v>-0.1354604564465379</v>
       </c>
       <c r="E21">
-        <v>0.06604920839519672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.003441244998284008</v>
+      </c>
+      <c r="F21">
+        <v>0.0717623231727408</v>
+      </c>
+      <c r="G21">
+        <v>0.0112163468417581</v>
+      </c>
+      <c r="H21">
+        <v>0.1757511919563793</v>
+      </c>
+      <c r="I21">
+        <v>0.1145428410063091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.004222969116030454</v>
+        <v>-0.01006736872121372</v>
       </c>
       <c r="C22">
-        <v>-0.06167375117458599</v>
+        <v>-0.08050144033248877</v>
       </c>
       <c r="D22">
-        <v>0.2016447711802975</v>
+        <v>-0.2511219261779476</v>
       </c>
       <c r="E22">
-        <v>-0.03764376988283211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04124306798556247</v>
+      </c>
+      <c r="F22">
+        <v>0.03206295281260278</v>
+      </c>
+      <c r="G22">
+        <v>0.3607856568205396</v>
+      </c>
+      <c r="H22">
+        <v>-0.3877895237747904</v>
+      </c>
+      <c r="I22">
+        <v>-0.1204292164549862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.004492922915183901</v>
+        <v>-0.009555346037876146</v>
       </c>
       <c r="C23">
-        <v>-0.06212853283060454</v>
+        <v>-0.08142175146024073</v>
       </c>
       <c r="D23">
-        <v>0.2012036278499984</v>
+        <v>-0.2516625252169911</v>
       </c>
       <c r="E23">
-        <v>-0.03746191005628444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.03813819575749551</v>
+      </c>
+      <c r="F23">
+        <v>0.03140742999753451</v>
+      </c>
+      <c r="G23">
+        <v>0.3596312285376229</v>
+      </c>
+      <c r="H23">
+        <v>-0.3883456243755452</v>
+      </c>
+      <c r="I23">
+        <v>-0.1223239810453277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03197591456035771</v>
+        <v>0.01077030878687257</v>
       </c>
       <c r="C24">
-        <v>-0.05540884488010177</v>
+        <v>-0.06546613383020029</v>
       </c>
       <c r="D24">
-        <v>0.07048111435359866</v>
+        <v>-0.05430242632469112</v>
       </c>
       <c r="E24">
-        <v>-0.006316552417883063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02330114024455085</v>
+      </c>
+      <c r="F24">
+        <v>-0.005458499923753621</v>
+      </c>
+      <c r="G24">
+        <v>-0.01251600253870347</v>
+      </c>
+      <c r="H24">
+        <v>0.07614503267090814</v>
+      </c>
+      <c r="I24">
+        <v>-0.02736279808960175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03362257261436634</v>
+        <v>0.0143404716811814</v>
       </c>
       <c r="C25">
-        <v>-0.04674167113030925</v>
+        <v>-0.06067639218843945</v>
       </c>
       <c r="D25">
-        <v>0.06376030502812631</v>
+        <v>-0.05125482008626198</v>
       </c>
       <c r="E25">
-        <v>-0.0008460077863140734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.00978810170972535</v>
+      </c>
+      <c r="F25">
+        <v>-0.007206176054882035</v>
+      </c>
+      <c r="G25">
+        <v>-0.01743810915326394</v>
+      </c>
+      <c r="H25">
+        <v>0.0439673462285675</v>
+      </c>
+      <c r="I25">
+        <v>-0.0184792828213099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0094638922479813</v>
+        <v>0.007780039433175829</v>
       </c>
       <c r="C26">
-        <v>-0.01688725093487715</v>
+        <v>-0.02625009781955994</v>
       </c>
       <c r="D26">
-        <v>0.08210436567820012</v>
+        <v>-0.07089919441059368</v>
       </c>
       <c r="E26">
-        <v>0.01664719216358184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02269384436875856</v>
+      </c>
+      <c r="F26">
+        <v>0.02253975709735138</v>
+      </c>
+      <c r="G26">
+        <v>-0.006319571631615232</v>
+      </c>
+      <c r="H26">
+        <v>0.08475838249218723</v>
+      </c>
+      <c r="I26">
+        <v>0.05074518797928999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2261458234754153</v>
+        <v>0.3196068672969378</v>
       </c>
       <c r="C28">
-        <v>0.2350265953541375</v>
+        <v>0.1166786659290921</v>
       </c>
       <c r="D28">
-        <v>0.02079531129451089</v>
+        <v>0.01100519907160787</v>
       </c>
       <c r="E28">
-        <v>0.06990134237744229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04953852899426055</v>
+      </c>
+      <c r="F28">
+        <v>0.03641924880350757</v>
+      </c>
+      <c r="G28">
+        <v>0.02239795354119639</v>
+      </c>
+      <c r="H28">
+        <v>-0.02079247648155642</v>
+      </c>
+      <c r="I28">
+        <v>0.1386466312370525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002706548804329548</v>
+        <v>-0.000482101456170029</v>
       </c>
       <c r="C29">
-        <v>-0.02378219193904735</v>
+        <v>-0.03096798340563734</v>
       </c>
       <c r="D29">
-        <v>0.1019538147842622</v>
+        <v>-0.09890187269111242</v>
       </c>
       <c r="E29">
-        <v>0.01059869779441141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04148079821852473</v>
+      </c>
+      <c r="F29">
+        <v>0.02871264461914985</v>
+      </c>
+      <c r="G29">
+        <v>-0.007702903800514026</v>
+      </c>
+      <c r="H29">
+        <v>0.1215831959819364</v>
+      </c>
+      <c r="I29">
+        <v>0.01830726672792192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03164975933229108</v>
+        <v>0.01860219472527537</v>
       </c>
       <c r="C30">
-        <v>-0.05965756141731999</v>
+        <v>-0.08490921086358712</v>
       </c>
       <c r="D30">
-        <v>0.1676812267801763</v>
+        <v>-0.1633903670300425</v>
       </c>
       <c r="E30">
-        <v>0.01840636997285693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0377655143271633</v>
+      </c>
+      <c r="F30">
+        <v>0.03670930403095077</v>
+      </c>
+      <c r="G30">
+        <v>0.03164859193667869</v>
+      </c>
+      <c r="H30">
+        <v>0.05254442383505315</v>
+      </c>
+      <c r="I30">
+        <v>-0.06334001322345137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05090281454801662</v>
+        <v>0.01181781027900262</v>
       </c>
       <c r="C31">
-        <v>-0.08347684715754536</v>
+        <v>-0.09339629733933812</v>
       </c>
       <c r="D31">
-        <v>0.07147199364939721</v>
+        <v>-0.04224320320884608</v>
       </c>
       <c r="E31">
-        <v>0.01169391918099089</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007902318907898248</v>
+      </c>
+      <c r="F31">
+        <v>0.01238406141554135</v>
+      </c>
+      <c r="G31">
+        <v>0.003733480232327951</v>
+      </c>
+      <c r="H31">
+        <v>0.04789680129639348</v>
+      </c>
+      <c r="I31">
+        <v>0.07448838900970751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02146760345104146</v>
+        <v>0.009795689913722769</v>
       </c>
       <c r="C32">
-        <v>-0.03665766782023221</v>
+        <v>-0.0453823794957009</v>
       </c>
       <c r="D32">
-        <v>0.1067657113275245</v>
+        <v>-0.1124416977290522</v>
       </c>
       <c r="E32">
-        <v>0.06333169498972152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007289389611982793</v>
+      </c>
+      <c r="F32">
+        <v>0.04522387646580815</v>
+      </c>
+      <c r="G32">
+        <v>0.02723272918970314</v>
+      </c>
+      <c r="H32">
+        <v>0.03998066324963853</v>
+      </c>
+      <c r="I32">
+        <v>0.08076769970872827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01869076817005717</v>
+        <v>0.00838292690521651</v>
       </c>
       <c r="C33">
-        <v>-0.04297320488876187</v>
+        <v>-0.05767308528703567</v>
       </c>
       <c r="D33">
-        <v>0.1504668735898401</v>
+        <v>-0.1290309008752933</v>
       </c>
       <c r="E33">
-        <v>0.03886501356454271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01191535869502773</v>
+      </c>
+      <c r="F33">
+        <v>0.02752713626424009</v>
+      </c>
+      <c r="G33">
+        <v>0.008448553090872821</v>
+      </c>
+      <c r="H33">
+        <v>0.07138004663438992</v>
+      </c>
+      <c r="I33">
+        <v>0.02060980394333954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0286333745958382</v>
+        <v>0.007274621527955442</v>
       </c>
       <c r="C34">
-        <v>-0.05736172722696223</v>
+        <v>-0.06192646823316171</v>
       </c>
       <c r="D34">
-        <v>0.05027295907628856</v>
+        <v>-0.03236667222743007</v>
       </c>
       <c r="E34">
-        <v>-0.04652569073272848</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02772162430403962</v>
+      </c>
+      <c r="F34">
+        <v>-0.03456499328729765</v>
+      </c>
+      <c r="G34">
+        <v>-0.01255302309608832</v>
+      </c>
+      <c r="H34">
+        <v>0.05911750165560593</v>
+      </c>
+      <c r="I34">
+        <v>-0.005495922397974157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005924137475318866</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00467059143273082</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.01565557651812343</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003792673740867798</v>
+      </c>
+      <c r="F35">
+        <v>0.001616458306387301</v>
+      </c>
+      <c r="G35">
+        <v>-0.003690679862474457</v>
+      </c>
+      <c r="H35">
+        <v>0.01293345304404609</v>
+      </c>
+      <c r="I35">
+        <v>-0.005788276898068136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009455406794937244</v>
+        <v>0.008967369221384655</v>
       </c>
       <c r="C36">
-        <v>-0.008166195272008826</v>
+        <v>-0.02037201408739393</v>
       </c>
       <c r="D36">
-        <v>0.09543264019024217</v>
+        <v>-0.07977371775672079</v>
       </c>
       <c r="E36">
-        <v>0.04024447045580781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.006084423189832008</v>
+      </c>
+      <c r="F36">
+        <v>0.0352987960295449</v>
+      </c>
+      <c r="G36">
+        <v>-0.0003239124860324272</v>
+      </c>
+      <c r="H36">
+        <v>0.06180989647243203</v>
+      </c>
+      <c r="I36">
+        <v>0.03412539373050247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008158396833097355</v>
+        <v>0.01516744932508216</v>
       </c>
       <c r="C38">
-        <v>-0.008420619353808305</v>
+        <v>-0.01563836772367182</v>
       </c>
       <c r="D38">
-        <v>0.08880496672158192</v>
+        <v>-0.08423164094949379</v>
       </c>
       <c r="E38">
-        <v>0.01034434826363291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01186837698010806</v>
+      </c>
+      <c r="F38">
+        <v>-0.007511727569466777</v>
+      </c>
+      <c r="G38">
+        <v>0.02255751633746979</v>
+      </c>
+      <c r="H38">
+        <v>0.05491842454935091</v>
+      </c>
+      <c r="I38">
+        <v>0.03816665855433518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0250653686245341</v>
+        <v>0.007131856873571436</v>
       </c>
       <c r="C39">
-        <v>-0.05700114281884515</v>
+        <v>-0.07594225480960713</v>
       </c>
       <c r="D39">
-        <v>0.1181944223199806</v>
+        <v>-0.1076957218738651</v>
       </c>
       <c r="E39">
-        <v>-0.02038640814702383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04681363961819524</v>
+      </c>
+      <c r="F39">
+        <v>-0.004537440997500084</v>
+      </c>
+      <c r="G39">
+        <v>-0.0159865505715093</v>
+      </c>
+      <c r="H39">
+        <v>0.1011291645508041</v>
+      </c>
+      <c r="I39">
+        <v>-0.06028526406289297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01326043773892622</v>
+        <v>0.01158459251244609</v>
       </c>
       <c r="C40">
-        <v>-0.01830247162137643</v>
+        <v>-0.02681025849311428</v>
       </c>
       <c r="D40">
-        <v>0.1150747246169131</v>
+        <v>-0.09672517611612719</v>
       </c>
       <c r="E40">
-        <v>-0.02402289939761216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04050511894900999</v>
+      </c>
+      <c r="F40">
+        <v>-0.02526382009129142</v>
+      </c>
+      <c r="G40">
+        <v>0.06704310446865451</v>
+      </c>
+      <c r="H40">
+        <v>0.07411217060072534</v>
+      </c>
+      <c r="I40">
+        <v>0.06558111724334363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01338816132154476</v>
+        <v>0.01199539476819082</v>
       </c>
       <c r="C41">
-        <v>-0.009495642017946726</v>
+        <v>-0.0178211786492676</v>
       </c>
       <c r="D41">
-        <v>0.06265673045547834</v>
+        <v>-0.04397472477618632</v>
       </c>
       <c r="E41">
-        <v>0.03357050448544733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0222488352519873</v>
+      </c>
+      <c r="F41">
+        <v>0.01688846850339018</v>
+      </c>
+      <c r="G41">
+        <v>0.01385496122957086</v>
+      </c>
+      <c r="H41">
+        <v>0.04842041410457017</v>
+      </c>
+      <c r="I41">
+        <v>0.049576952729106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008188274045299966</v>
+        <v>0.0058216365787833</v>
       </c>
       <c r="C43">
-        <v>-0.01368079494118804</v>
+        <v>-0.01895436233332216</v>
       </c>
       <c r="D43">
-        <v>0.07615819399021803</v>
+        <v>-0.05548887485690392</v>
       </c>
       <c r="E43">
-        <v>0.0243714395689596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007093780173473637</v>
+      </c>
+      <c r="F43">
+        <v>0.01558006008918328</v>
+      </c>
+      <c r="G43">
+        <v>0.0153766332694815</v>
+      </c>
+      <c r="H43">
+        <v>0.07390288393876059</v>
+      </c>
+      <c r="I43">
+        <v>0.04216396782319966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01962966180437964</v>
+        <v>0.01227222398727733</v>
       </c>
       <c r="C44">
-        <v>-0.02769375279118596</v>
+        <v>-0.04683184887210481</v>
       </c>
       <c r="D44">
-        <v>0.1183330547637687</v>
+        <v>-0.1207578287812246</v>
       </c>
       <c r="E44">
-        <v>0.04022637960298759</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0208812251935425</v>
+      </c>
+      <c r="F44">
+        <v>0.02652045600161616</v>
+      </c>
+      <c r="G44">
+        <v>0.01772567805767544</v>
+      </c>
+      <c r="H44">
+        <v>0.0455826095201492</v>
+      </c>
+      <c r="I44">
+        <v>-0.05365954261657169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01206422297835913</v>
+        <v>-0.00040771637563513</v>
       </c>
       <c r="C46">
-        <v>-0.03105352649896171</v>
+        <v>-0.04154597301681331</v>
       </c>
       <c r="D46">
-        <v>0.1004995815821514</v>
+        <v>-0.0854160600580007</v>
       </c>
       <c r="E46">
-        <v>0.01858556544049306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02397895202458288</v>
+      </c>
+      <c r="F46">
+        <v>0.02678537581177903</v>
+      </c>
+      <c r="G46">
+        <v>0.009589688327433069</v>
+      </c>
+      <c r="H46">
+        <v>0.1369149403306058</v>
+      </c>
+      <c r="I46">
+        <v>0.02624540253432832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09398246006779479</v>
+        <v>0.03891743754014008</v>
       </c>
       <c r="C47">
-        <v>-0.0985346973171795</v>
+        <v>-0.1231292888253015</v>
       </c>
       <c r="D47">
-        <v>0.05888336250779203</v>
+        <v>-0.0235065129216026</v>
       </c>
       <c r="E47">
-        <v>0.02637355358078329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01965062247502994</v>
+      </c>
+      <c r="F47">
+        <v>-0.0134087392701645</v>
+      </c>
+      <c r="G47">
+        <v>-0.04754345105751892</v>
+      </c>
+      <c r="H47">
+        <v>0.03658779972448743</v>
+      </c>
+      <c r="I47">
+        <v>0.1365831924008057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006880348133417097</v>
+        <v>0.00695100826537597</v>
       </c>
       <c r="C48">
-        <v>-0.01798991026021849</v>
+        <v>-0.02842081204055773</v>
       </c>
       <c r="D48">
-        <v>0.09536815553519018</v>
+        <v>-0.08244464132237668</v>
       </c>
       <c r="E48">
-        <v>0.05365249038682358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00696234759084406</v>
+      </c>
+      <c r="F48">
+        <v>0.03939179815339702</v>
+      </c>
+      <c r="G48">
+        <v>0.006488334792433046</v>
+      </c>
+      <c r="H48">
+        <v>0.09157452425666505</v>
+      </c>
+      <c r="I48">
+        <v>0.02540393941706583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0469667126100517</v>
+        <v>0.01439720741801008</v>
       </c>
       <c r="C50">
-        <v>-0.06154687808428877</v>
+        <v>-0.07608776948904734</v>
       </c>
       <c r="D50">
-        <v>0.07102827865941498</v>
+        <v>-0.04714578537516121</v>
       </c>
       <c r="E50">
-        <v>0.008352343022487036</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0001394888590279176</v>
+      </c>
+      <c r="F50">
+        <v>0.007572954309541539</v>
+      </c>
+      <c r="G50">
+        <v>0.02577874174856859</v>
+      </c>
+      <c r="H50">
+        <v>0.0383026222759288</v>
+      </c>
+      <c r="I50">
+        <v>0.1274570913285102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005008812317277493</v>
+        <v>0.003383530739900376</v>
       </c>
       <c r="C51">
-        <v>-0.005049972321945026</v>
+        <v>-0.01750185703741863</v>
       </c>
       <c r="D51">
-        <v>0.06587683384679596</v>
+        <v>-0.07072978827942335</v>
       </c>
       <c r="E51">
-        <v>0.001242273878215139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03770740302621774</v>
+      </c>
+      <c r="F51">
+        <v>0.03651703142520166</v>
+      </c>
+      <c r="G51">
+        <v>0.03292239766508821</v>
+      </c>
+      <c r="H51">
+        <v>0.04944250554370926</v>
+      </c>
+      <c r="I51">
+        <v>0.004942810319196548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1206025834523173</v>
+        <v>0.06244492395743629</v>
       </c>
       <c r="C53">
-        <v>-0.1111529102492274</v>
+        <v>-0.1554660416638813</v>
       </c>
       <c r="D53">
-        <v>0.01789115189636708</v>
+        <v>0.01505496809488265</v>
       </c>
       <c r="E53">
-        <v>0.05701788153767658</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.035260579433217</v>
+      </c>
+      <c r="F53">
+        <v>0.04763860812024293</v>
+      </c>
+      <c r="G53">
+        <v>0.01096282064639708</v>
+      </c>
+      <c r="H53">
+        <v>0.003527860106909143</v>
+      </c>
+      <c r="I53">
+        <v>0.08543863753104247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02033899900845919</v>
+        <v>0.01147510362658359</v>
       </c>
       <c r="C54">
-        <v>-0.02418581944865618</v>
+        <v>-0.04149194184511542</v>
       </c>
       <c r="D54">
-        <v>0.1080414137856968</v>
+        <v>-0.08465505116647613</v>
       </c>
       <c r="E54">
-        <v>0.002407774455915352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.009320674280017529</v>
+      </c>
+      <c r="F54">
+        <v>-0.002404236504902211</v>
+      </c>
+      <c r="G54">
+        <v>0.02217709037758965</v>
+      </c>
+      <c r="H54">
+        <v>0.09555081611164393</v>
+      </c>
+      <c r="I54">
+        <v>0.05308321567200477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1064060364662726</v>
+        <v>0.05016194753968457</v>
       </c>
       <c r="C55">
-        <v>-0.09305869687508685</v>
+        <v>-0.1266255836825942</v>
       </c>
       <c r="D55">
-        <v>0.00455166907234717</v>
+        <v>0.02813551202800975</v>
       </c>
       <c r="E55">
-        <v>0.01468135864049411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0006869077634259291</v>
+      </c>
+      <c r="F55">
+        <v>0.01533992320150194</v>
+      </c>
+      <c r="G55">
+        <v>0.01885781735046094</v>
+      </c>
+      <c r="H55">
+        <v>0.01072726637752005</v>
+      </c>
+      <c r="I55">
+        <v>0.08843888021908192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1483723283843079</v>
+        <v>0.06918705812841876</v>
       </c>
       <c r="C56">
-        <v>-0.122161448858531</v>
+        <v>-0.1837979111828168</v>
       </c>
       <c r="D56">
-        <v>0.002906420278274108</v>
+        <v>0.026497134376742</v>
       </c>
       <c r="E56">
-        <v>0.01685181017873357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0339354719341021</v>
+      </c>
+      <c r="F56">
+        <v>0.0148546238774551</v>
+      </c>
+      <c r="G56">
+        <v>0.06403475962484317</v>
+      </c>
+      <c r="H56">
+        <v>-0.003030992445851304</v>
+      </c>
+      <c r="I56">
+        <v>0.1103721984659308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.002332647348902701</v>
+        <v>0.006786696499957733</v>
       </c>
       <c r="C58">
-        <v>-0.01729257951015816</v>
+        <v>-0.0498516970060995</v>
       </c>
       <c r="D58">
-        <v>0.2275929385604363</v>
+        <v>-0.2854357922430409</v>
       </c>
       <c r="E58">
-        <v>0.0759805939947623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02416529961654896</v>
+      </c>
+      <c r="F58">
+        <v>0.09405613394889384</v>
+      </c>
+      <c r="G58">
+        <v>0.1265702849428534</v>
+      </c>
+      <c r="H58">
+        <v>-0.09748335152052957</v>
+      </c>
+      <c r="I58">
+        <v>-0.05941573935337659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1577054788040905</v>
+        <v>0.2451075356332467</v>
       </c>
       <c r="C59">
-        <v>0.1714272913049915</v>
+        <v>0.08152935921533677</v>
       </c>
       <c r="D59">
-        <v>0.05205271720767114</v>
+        <v>-0.05960559517628124</v>
       </c>
       <c r="E59">
-        <v>0.03741117933510391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03161916300019196</v>
+      </c>
+      <c r="F59">
+        <v>0.01508604324948007</v>
+      </c>
+      <c r="G59">
+        <v>0.001132998420919881</v>
+      </c>
+      <c r="H59">
+        <v>-0.01860285770737742</v>
+      </c>
+      <c r="I59">
+        <v>0.03033862215147141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2053153723702236</v>
+        <v>0.1563113786619768</v>
       </c>
       <c r="C60">
-        <v>-0.08271333260147026</v>
+        <v>-0.1705750029797818</v>
       </c>
       <c r="D60">
-        <v>0.160341581046295</v>
+        <v>-0.08556583438041884</v>
       </c>
       <c r="E60">
-        <v>-0.1961624847404377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2276931743823874</v>
+      </c>
+      <c r="F60">
+        <v>-0.1635228630039602</v>
+      </c>
+      <c r="G60">
+        <v>-0.2204661147691602</v>
+      </c>
+      <c r="H60">
+        <v>-0.2069104629439275</v>
+      </c>
+      <c r="I60">
+        <v>-0.0486597377145867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03584868496697605</v>
+        <v>0.01481915429220687</v>
       </c>
       <c r="C61">
-        <v>-0.05255557744471651</v>
+        <v>-0.07200952627142919</v>
       </c>
       <c r="D61">
-        <v>0.1096881299809524</v>
+        <v>-0.08535961542646905</v>
       </c>
       <c r="E61">
-        <v>-0.007551893169341102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03438726150231174</v>
+      </c>
+      <c r="F61">
+        <v>-0.01353831762504112</v>
+      </c>
+      <c r="G61">
+        <v>-0.03075703281728666</v>
+      </c>
+      <c r="H61">
+        <v>0.09473819607728326</v>
+      </c>
+      <c r="I61">
+        <v>-0.0164423704852284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01174821635736672</v>
+        <v>0.002901616123113917</v>
       </c>
       <c r="C63">
-        <v>-0.0261739587871556</v>
+        <v>-0.03645813773004479</v>
       </c>
       <c r="D63">
-        <v>0.09496093974052032</v>
+        <v>-0.07237634080946041</v>
       </c>
       <c r="E63">
-        <v>0.01268505957268864</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02653857671465025</v>
+      </c>
+      <c r="F63">
+        <v>0.02267577154932564</v>
+      </c>
+      <c r="G63">
+        <v>0.008014036818132847</v>
+      </c>
+      <c r="H63">
+        <v>0.06349747419696458</v>
+      </c>
+      <c r="I63">
+        <v>0.008547729984467812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06804821048612933</v>
+        <v>0.02328145734113045</v>
       </c>
       <c r="C64">
-        <v>-0.07896140750799782</v>
+        <v>-0.1054192529448492</v>
       </c>
       <c r="D64">
-        <v>0.04250983160642453</v>
+        <v>-0.02980176120107595</v>
       </c>
       <c r="E64">
-        <v>0.01916771026722919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0277672139373629</v>
+      </c>
+      <c r="F64">
+        <v>0.02335831426467742</v>
+      </c>
+      <c r="G64">
+        <v>-0.05330995454486567</v>
+      </c>
+      <c r="H64">
+        <v>0.1115136652870804</v>
+      </c>
+      <c r="I64">
+        <v>-0.05549176797106561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02933701481530843</v>
+        <v>0.02487818866079445</v>
       </c>
       <c r="C65">
-        <v>-0.01528377095381263</v>
+        <v>-0.039133906035774</v>
       </c>
       <c r="D65">
-        <v>0.1197608540245397</v>
+        <v>-0.1187568805817511</v>
       </c>
       <c r="E65">
-        <v>0.002679464585895924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04546150442051919</v>
+      </c>
+      <c r="F65">
+        <v>0.005606311864927766</v>
+      </c>
+      <c r="G65">
+        <v>-0.02165053511610738</v>
+      </c>
+      <c r="H65">
+        <v>0.04694427932887728</v>
+      </c>
+      <c r="I65">
+        <v>0.00383156236311706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02862230782102451</v>
+        <v>0.005282581443828882</v>
       </c>
       <c r="C66">
-        <v>-0.06373099129523123</v>
+        <v>-0.09106985278099744</v>
       </c>
       <c r="D66">
-        <v>0.1219250182012229</v>
+        <v>-0.1303073085768438</v>
       </c>
       <c r="E66">
-        <v>-0.02472899140905545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03278929027405789</v>
+      </c>
+      <c r="F66">
+        <v>-0.01282544921562736</v>
+      </c>
+      <c r="G66">
+        <v>0.000267899441375606</v>
+      </c>
+      <c r="H66">
+        <v>0.05575920335143326</v>
+      </c>
+      <c r="I66">
+        <v>-0.06556493255776549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02870985408119761</v>
+        <v>0.02575934272460175</v>
       </c>
       <c r="C67">
-        <v>-0.01787879881350224</v>
+        <v>-0.02773197212692224</v>
       </c>
       <c r="D67">
-        <v>0.04495068908275287</v>
+        <v>-0.03455658586804064</v>
       </c>
       <c r="E67">
-        <v>-0.01424003676913381</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003290786936768639</v>
+      </c>
+      <c r="F67">
+        <v>-0.02932425841290199</v>
+      </c>
+      <c r="G67">
+        <v>0.009828829389546472</v>
+      </c>
+      <c r="H67">
+        <v>0.06462646753657791</v>
+      </c>
+      <c r="I67">
+        <v>0.02855123970323929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1815975032262689</v>
+        <v>0.2645424351586027</v>
       </c>
       <c r="C68">
-        <v>0.184085129649313</v>
+        <v>0.08101135972921503</v>
       </c>
       <c r="D68">
-        <v>0.03157873740137286</v>
+        <v>-0.03424403336014942</v>
       </c>
       <c r="E68">
-        <v>0.01479250314114382</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004644336994224651</v>
+      </c>
+      <c r="F68">
+        <v>0.03034738601395329</v>
+      </c>
+      <c r="G68">
+        <v>0.06615818778892162</v>
+      </c>
+      <c r="H68">
+        <v>-0.03902913615785032</v>
+      </c>
+      <c r="I68">
+        <v>0.09678048315048661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07320248874204723</v>
+        <v>0.02404813205455243</v>
       </c>
       <c r="C69">
-        <v>-0.111743441894366</v>
+        <v>-0.1209504837801451</v>
       </c>
       <c r="D69">
-        <v>0.08179510169962642</v>
+        <v>-0.03719304786686996</v>
       </c>
       <c r="E69">
-        <v>0.011882399907577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.001081652583202949</v>
+      </c>
+      <c r="F69">
+        <v>-0.01432448608903484</v>
+      </c>
+      <c r="G69">
+        <v>-0.03083592610707476</v>
+      </c>
+      <c r="H69">
+        <v>0.04089877609161848</v>
+      </c>
+      <c r="I69">
+        <v>0.09429270746863144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1876375209062445</v>
+        <v>0.2662399017102094</v>
       </c>
       <c r="C71">
-        <v>0.2020516511861846</v>
+        <v>0.09548378642090609</v>
       </c>
       <c r="D71">
-        <v>0.02895958663737037</v>
+        <v>-0.02097446009152757</v>
       </c>
       <c r="E71">
-        <v>0.01636995513906729</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.009072611801842625</v>
+      </c>
+      <c r="F71">
+        <v>0.01616279127877724</v>
+      </c>
+      <c r="G71">
+        <v>0.04039233922528058</v>
+      </c>
+      <c r="H71">
+        <v>0.01557856566122234</v>
+      </c>
+      <c r="I71">
+        <v>0.1686905224288766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.11536762433562</v>
+        <v>0.06444742206663497</v>
       </c>
       <c r="C72">
-        <v>-0.06404761480165982</v>
+        <v>-0.12221412870444</v>
       </c>
       <c r="D72">
-        <v>0.09819170304218772</v>
+        <v>-0.06351983852976603</v>
       </c>
       <c r="E72">
-        <v>-0.04994183229029231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08988205360992492</v>
+      </c>
+      <c r="F72">
+        <v>-0.01591317901231398</v>
+      </c>
+      <c r="G72">
+        <v>-0.03535784060858897</v>
+      </c>
+      <c r="H72">
+        <v>0.0559750850858803</v>
+      </c>
+      <c r="I72">
+        <v>-0.04212396720301222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1861660573729847</v>
+        <v>0.1423429081020882</v>
       </c>
       <c r="C73">
-        <v>-0.04269096148426015</v>
+        <v>-0.1367759687785427</v>
       </c>
       <c r="D73">
-        <v>0.222217632208164</v>
+        <v>-0.09715683595362389</v>
       </c>
       <c r="E73">
-        <v>-0.2961851501849578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3776193938684773</v>
+      </c>
+      <c r="F73">
+        <v>-0.243855969783023</v>
+      </c>
+      <c r="G73">
+        <v>-0.4269188227127507</v>
+      </c>
+      <c r="H73">
+        <v>-0.1804269127357738</v>
+      </c>
+      <c r="I73">
+        <v>-0.07051437881844864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1192030874373637</v>
+        <v>0.05771615487985576</v>
       </c>
       <c r="C74">
-        <v>-0.1002922945384026</v>
+        <v>-0.1425937470375686</v>
       </c>
       <c r="D74">
-        <v>-0.02485855454047374</v>
+        <v>0.04451176594046741</v>
       </c>
       <c r="E74">
-        <v>0.04337445048445294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01426081918662643</v>
+      </c>
+      <c r="F74">
+        <v>0.04477676990779828</v>
+      </c>
+      <c r="G74">
+        <v>0.009070805484653782</v>
+      </c>
+      <c r="H74">
+        <v>-0.01149534890647416</v>
+      </c>
+      <c r="I74">
+        <v>0.1131474431171475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2561279980055866</v>
+        <v>0.1286955617625221</v>
       </c>
       <c r="C75">
-        <v>-0.1688581682927515</v>
+        <v>-0.2636886535597558</v>
       </c>
       <c r="D75">
-        <v>-0.1070687741713089</v>
+        <v>0.1377971341773289</v>
       </c>
       <c r="E75">
-        <v>-0.00681312943889618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08666306271129412</v>
+      </c>
+      <c r="F75">
+        <v>-0.03831564229056207</v>
+      </c>
+      <c r="G75">
+        <v>0.103622540776778</v>
+      </c>
+      <c r="H75">
+        <v>-0.000126906411771891</v>
+      </c>
+      <c r="I75">
+        <v>0.09087924079119021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1569304858485671</v>
+        <v>0.0742771505442805</v>
       </c>
       <c r="C76">
-        <v>-0.1220199079436659</v>
+        <v>-0.1813963546570684</v>
       </c>
       <c r="D76">
-        <v>0.01548613024060259</v>
+        <v>0.03468176155739647</v>
       </c>
       <c r="E76">
-        <v>0.01586712489377816</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02856743973920408</v>
+      </c>
+      <c r="F76">
+        <v>0.004568477414681095</v>
+      </c>
+      <c r="G76">
+        <v>0.05205502172966281</v>
+      </c>
+      <c r="H76">
+        <v>0.03513156091254634</v>
+      </c>
+      <c r="I76">
+        <v>0.1174453900588152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02614499874247957</v>
+        <v>0.03109809734379143</v>
       </c>
       <c r="C77">
-        <v>-0.0798055136800072</v>
+        <v>-0.09336941814260433</v>
       </c>
       <c r="D77">
-        <v>0.07919611812519443</v>
+        <v>-0.2529298389626031</v>
       </c>
       <c r="E77">
-        <v>0.2234498112455654</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7683050817321204</v>
+      </c>
+      <c r="F77">
+        <v>-0.3239715842287091</v>
+      </c>
+      <c r="G77">
+        <v>-0.2883426030341924</v>
+      </c>
+      <c r="H77">
+        <v>-0.2548391560286696</v>
+      </c>
+      <c r="I77">
+        <v>0.03010029347428543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03343507938851157</v>
+        <v>0.01715059952874532</v>
       </c>
       <c r="C78">
-        <v>-0.06854970505710395</v>
+        <v>-0.08781577780911005</v>
       </c>
       <c r="D78">
-        <v>0.1556430434375664</v>
+        <v>-0.1412765715710618</v>
       </c>
       <c r="E78">
-        <v>0.03376270054587083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04424967468084654</v>
+      </c>
+      <c r="F78">
+        <v>0.04682331640091325</v>
+      </c>
+      <c r="G78">
+        <v>0.03661894797112165</v>
+      </c>
+      <c r="H78">
+        <v>0.0208481693207293</v>
+      </c>
+      <c r="I78">
+        <v>0.03513197206127457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1047822504938887</v>
+        <v>0.04199009583581242</v>
       </c>
       <c r="C79">
-        <v>-0.1495716983252492</v>
+        <v>-0.1786910850645274</v>
       </c>
       <c r="D79">
-        <v>-0.1093798061570534</v>
+        <v>0.07394326099827388</v>
       </c>
       <c r="E79">
-        <v>0.7805675614804134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1153511761163123</v>
+      </c>
+      <c r="F79">
+        <v>0.8094163458901926</v>
+      </c>
+      <c r="G79">
+        <v>-0.3800645078120824</v>
+      </c>
+      <c r="H79">
+        <v>-0.2283685563604907</v>
+      </c>
+      <c r="I79">
+        <v>-0.1491268428011366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009204375781267317</v>
+        <v>-0.0004604103917103219</v>
       </c>
       <c r="C80">
-        <v>-0.04817388130834267</v>
+        <v>-0.04832141654999294</v>
       </c>
       <c r="D80">
-        <v>0.04811658310156656</v>
+        <v>-0.04537711643212067</v>
       </c>
       <c r="E80">
-        <v>-0.004680317624199377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02069331949329533</v>
+      </c>
+      <c r="F80">
+        <v>0.009603585665393325</v>
+      </c>
+      <c r="G80">
+        <v>0.03802283426353027</v>
+      </c>
+      <c r="H80">
+        <v>0.02316765036114215</v>
+      </c>
+      <c r="I80">
+        <v>0.05854804802094436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1346166362973197</v>
+        <v>0.05601724547237182</v>
       </c>
       <c r="C81">
-        <v>-0.1178463366547052</v>
+        <v>-0.163899381480663</v>
       </c>
       <c r="D81">
-        <v>-0.06418960313606019</v>
+        <v>0.07964616047970167</v>
       </c>
       <c r="E81">
-        <v>0.07103641519331996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06892269427750367</v>
+      </c>
+      <c r="F81">
+        <v>0.04309871081508435</v>
+      </c>
+      <c r="G81">
+        <v>0.04611982012756172</v>
+      </c>
+      <c r="H81">
+        <v>0.06289107489694333</v>
+      </c>
+      <c r="I81">
+        <v>0.1334919378256721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2839627292269283</v>
+        <v>0.1136412903158619</v>
       </c>
       <c r="C82">
-        <v>-0.2618742157190764</v>
+        <v>-0.3254404622312511</v>
       </c>
       <c r="D82">
-        <v>-0.211302154628259</v>
+        <v>0.2303278970789172</v>
       </c>
       <c r="E82">
-        <v>-0.1148502248984904</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04279348655740248</v>
+      </c>
+      <c r="F82">
+        <v>-0.1275851980863838</v>
+      </c>
+      <c r="G82">
+        <v>0.07003178979110801</v>
+      </c>
+      <c r="H82">
+        <v>0.09954584635647346</v>
+      </c>
+      <c r="I82">
+        <v>0.05836506084959765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.001402234257465965</v>
+        <v>-0.008393335448967559</v>
       </c>
       <c r="C83">
-        <v>-0.05701584202442727</v>
+        <v>-0.03524717061603906</v>
       </c>
       <c r="D83">
-        <v>0.02443866687915808</v>
+        <v>-0.04321251148449663</v>
       </c>
       <c r="E83">
-        <v>0.06144275524768424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09459347598939095</v>
+      </c>
+      <c r="F83">
+        <v>0.02925389828368936</v>
+      </c>
+      <c r="G83">
+        <v>0.04820062448499239</v>
+      </c>
+      <c r="H83">
+        <v>0.04054377714947723</v>
+      </c>
+      <c r="I83">
+        <v>0.08981134107061457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.000167917100299887</v>
+        <v>-0.001364625547800851</v>
       </c>
       <c r="C84">
-        <v>-0.0001579862043815961</v>
+        <v>-0.01577934483247494</v>
       </c>
       <c r="D84">
-        <v>0.000818797271808794</v>
+        <v>-0.03849639236278082</v>
       </c>
       <c r="E84">
-        <v>0.000505869507084645</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.009406526273384015</v>
+      </c>
+      <c r="F84">
+        <v>0.01509589115363122</v>
+      </c>
+      <c r="G84">
+        <v>0.04614954442143349</v>
+      </c>
+      <c r="H84">
+        <v>-0.003538647572438723</v>
+      </c>
+      <c r="I84">
+        <v>-0.03202872036738112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1582577860445501</v>
+        <v>0.07030132390374913</v>
       </c>
       <c r="C85">
-        <v>-0.1222787664267349</v>
+        <v>-0.1831743029176987</v>
       </c>
       <c r="D85">
-        <v>-0.04731766077362038</v>
+        <v>0.09344856424881182</v>
       </c>
       <c r="E85">
-        <v>0.02605195918846462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.003004614563896835</v>
+      </c>
+      <c r="F85">
+        <v>0.07605900398106349</v>
+      </c>
+      <c r="G85">
+        <v>0.03414224199596482</v>
+      </c>
+      <c r="H85">
+        <v>0.007141937705058007</v>
+      </c>
+      <c r="I85">
+        <v>0.09551973278639304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01418268082741501</v>
+        <v>0.0116502333935735</v>
       </c>
       <c r="C86">
-        <v>-0.01561811635614089</v>
+        <v>-0.03095455287076995</v>
       </c>
       <c r="D86">
-        <v>0.0901373226747265</v>
+        <v>-0.111548585748168</v>
       </c>
       <c r="E86">
-        <v>0.04977955246845447</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04197923586631802</v>
+      </c>
+      <c r="F86">
+        <v>-0.0120122667873248</v>
+      </c>
+      <c r="G86">
+        <v>-0.02409073597006933</v>
+      </c>
+      <c r="H86">
+        <v>0.00324617730876531</v>
+      </c>
+      <c r="I86">
+        <v>0.08728322568098852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01761992210454438</v>
+        <v>0.01106778089305897</v>
       </c>
       <c r="C87">
-        <v>-0.0291831786729946</v>
+        <v>-0.05540987368469102</v>
       </c>
       <c r="D87">
-        <v>0.1259996628689926</v>
+        <v>-0.1443714008492106</v>
       </c>
       <c r="E87">
-        <v>0.04366328181668692</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.009013477080280566</v>
+      </c>
+      <c r="F87">
+        <v>0.03902113469619307</v>
+      </c>
+      <c r="G87">
+        <v>0.06431843693492313</v>
+      </c>
+      <c r="H87">
+        <v>0.02022728055368042</v>
+      </c>
+      <c r="I87">
+        <v>-0.04122568016460074</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06253401042864679</v>
+        <v>0.03177738948593081</v>
       </c>
       <c r="C88">
-        <v>-0.04516398141217407</v>
+        <v>-0.0699747595822223</v>
       </c>
       <c r="D88">
-        <v>0.0404454215047885</v>
+        <v>-0.01058762685463938</v>
       </c>
       <c r="E88">
-        <v>0.03245257012735232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01360454611636895</v>
+      </c>
+      <c r="F88">
+        <v>0.02393583520271911</v>
+      </c>
+      <c r="G88">
+        <v>0.002903113057140698</v>
+      </c>
+      <c r="H88">
+        <v>0.04346914085609489</v>
+      </c>
+      <c r="I88">
+        <v>0.05362267382873504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.280933877461571</v>
+        <v>0.4074394442999439</v>
       </c>
       <c r="C89">
-        <v>0.3633159271635981</v>
+        <v>0.1801362916988273</v>
       </c>
       <c r="D89">
-        <v>0.0410945204708604</v>
+        <v>-0.03186964044410281</v>
       </c>
       <c r="E89">
-        <v>0.09286270798720933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02208318132217649</v>
+      </c>
+      <c r="F89">
+        <v>0.06608850869911309</v>
+      </c>
+      <c r="G89">
+        <v>0.04330597345120075</v>
+      </c>
+      <c r="H89">
+        <v>0.1408316987244526</v>
+      </c>
+      <c r="I89">
+        <v>-0.3856524168983534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2248349060680395</v>
+        <v>0.3111387476646778</v>
       </c>
       <c r="C90">
-        <v>0.269952253188685</v>
+        <v>0.1218428190904149</v>
       </c>
       <c r="D90">
-        <v>0.03586768571326806</v>
+        <v>-0.03311351765025225</v>
       </c>
       <c r="E90">
-        <v>-0.004571052084000273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01554175134849884</v>
+      </c>
+      <c r="F90">
+        <v>-0.01871116249386757</v>
+      </c>
+      <c r="G90">
+        <v>0.06373125764252399</v>
+      </c>
+      <c r="H90">
+        <v>-0.01952678042190997</v>
+      </c>
+      <c r="I90">
+        <v>0.0798476098747806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1738939449942308</v>
+        <v>0.07873216604521933</v>
       </c>
       <c r="C91">
-        <v>-0.1614202545605888</v>
+        <v>-0.205191560249286</v>
       </c>
       <c r="D91">
-        <v>-0.1074019838124984</v>
+        <v>0.1157364962729242</v>
       </c>
       <c r="E91">
-        <v>0.1060130132198547</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07247241788695628</v>
+      </c>
+      <c r="F91">
+        <v>0.07361643121995537</v>
+      </c>
+      <c r="G91">
+        <v>0.0210260315150874</v>
+      </c>
+      <c r="H91">
+        <v>0.004100716875927226</v>
+      </c>
+      <c r="I91">
+        <v>0.1245976674196604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2041431871028321</v>
+        <v>0.3284886414063166</v>
       </c>
       <c r="C92">
-        <v>0.2819650916971445</v>
+        <v>0.1585316151244622</v>
       </c>
       <c r="D92">
-        <v>-0.03813057632982583</v>
+        <v>0.002434479178840336</v>
       </c>
       <c r="E92">
-        <v>0.06283445645311238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07665288779554881</v>
+      </c>
+      <c r="F92">
+        <v>0.02412701064492192</v>
+      </c>
+      <c r="G92">
+        <v>0.03238222390784242</v>
+      </c>
+      <c r="H92">
+        <v>0.03947970106264805</v>
+      </c>
+      <c r="I92">
+        <v>-0.1231755625851804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2494391330652196</v>
+        <v>0.3312283857002055</v>
       </c>
       <c r="C93">
-        <v>0.2820143395232982</v>
+        <v>0.1301918837431911</v>
       </c>
       <c r="D93">
-        <v>0.01469062439236002</v>
+        <v>0.0168458556628998</v>
       </c>
       <c r="E93">
-        <v>0.00702194237374529</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02532995682928443</v>
+      </c>
+      <c r="F93">
+        <v>0.01218156106993944</v>
+      </c>
+      <c r="G93">
+        <v>-0.01479824616346983</v>
+      </c>
+      <c r="H93">
+        <v>-7.649141806471717e-05</v>
+      </c>
+      <c r="I93">
+        <v>0.1091976574178563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3241587050612847</v>
+        <v>0.1517708375268851</v>
       </c>
       <c r="C94">
-        <v>-0.2257211235228853</v>
+        <v>-0.3468852296895487</v>
       </c>
       <c r="D94">
-        <v>-0.3593587324149529</v>
+        <v>0.3417620144409086</v>
       </c>
       <c r="E94">
-        <v>-0.1856217020779453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.03391049114775894</v>
+      </c>
+      <c r="F94">
+        <v>-0.1134690667215965</v>
+      </c>
+      <c r="G94">
+        <v>0.2983938651824237</v>
+      </c>
+      <c r="H94">
+        <v>-0.04684302735113196</v>
+      </c>
+      <c r="I94">
+        <v>-0.4223976420088427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02389144018995563</v>
+        <v>0.02106496456692748</v>
       </c>
       <c r="C95">
-        <v>-0.03961766490200571</v>
+        <v>-0.06348220171710045</v>
       </c>
       <c r="D95">
-        <v>0.08439317184624638</v>
+        <v>-0.1143481770870566</v>
       </c>
       <c r="E95">
-        <v>0.1131367282063494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.2011809483868877</v>
+      </c>
+      <c r="F95">
+        <v>-0.07124821008378142</v>
+      </c>
+      <c r="G95">
+        <v>-0.1355011621996086</v>
+      </c>
+      <c r="H95">
+        <v>0.385677423054033</v>
+      </c>
+      <c r="I95">
+        <v>-0.4886110173776033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0006295414497678517</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.411064751827121e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0003155603908630793</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0008208055467571463</v>
+      </c>
+      <c r="F97">
+        <v>-0.001636717949033145</v>
+      </c>
+      <c r="G97">
+        <v>-0.0008833322660229605</v>
+      </c>
+      <c r="H97">
+        <v>0.0001299781009418999</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004141572971807345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1547855445951443</v>
+        <v>0.11883587745664</v>
       </c>
       <c r="C98">
-        <v>-0.05999205615114638</v>
+        <v>-0.1385924237158956</v>
       </c>
       <c r="D98">
-        <v>0.11103551853955</v>
+        <v>-0.06087247905522482</v>
       </c>
       <c r="E98">
-        <v>-0.2175465534004045</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2656805914394209</v>
+      </c>
+      <c r="F98">
+        <v>-0.1674548481017775</v>
+      </c>
+      <c r="G98">
+        <v>-0.2541807663831059</v>
+      </c>
+      <c r="H98">
+        <v>-0.1780696555293513</v>
+      </c>
+      <c r="I98">
+        <v>-0.0393962327206771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003122564668413926</v>
+        <v>-8.769638868776693e-05</v>
       </c>
       <c r="C101">
-        <v>-0.02318197689501413</v>
+        <v>-0.03041270004218304</v>
       </c>
       <c r="D101">
-        <v>0.1021851100282283</v>
+        <v>-0.09850885796281807</v>
       </c>
       <c r="E101">
-        <v>0.01190112286921921</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.04076859828687509</v>
+      </c>
+      <c r="F101">
+        <v>0.02916908313544916</v>
+      </c>
+      <c r="G101">
+        <v>-0.006999582961838773</v>
+      </c>
+      <c r="H101">
+        <v>0.1228533584957543</v>
+      </c>
+      <c r="I101">
+        <v>0.01815981509621428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1245879737905708</v>
+        <v>0.04089763536372951</v>
       </c>
       <c r="C102">
-        <v>-0.1384756040740863</v>
+        <v>-0.1512358832503287</v>
       </c>
       <c r="D102">
-        <v>-0.07541052304635855</v>
+        <v>0.0947905239488379</v>
       </c>
       <c r="E102">
-        <v>-0.03896918623565134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.030265324095365</v>
+      </c>
+      <c r="F102">
+        <v>-0.06645632027871334</v>
+      </c>
+      <c r="G102">
+        <v>-0.009406817256628662</v>
+      </c>
+      <c r="H102">
+        <v>0.05011460343969696</v>
+      </c>
+      <c r="I102">
+        <v>0.02065810988465504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
